--- a/denmark/metadata/all/site_individual_metadata.xlsx
+++ b/denmark/metadata/all/site_individual_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktmea\Projects\plague-phylogeography-projects\denmark\metadata\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577C4A0-3DB4-4E09-93C2-B3C0FCF5B235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B37983C-2292-4C36-A393-432E2642B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="site_metadata" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="pivot" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">individual_metadata!$A$1:$K$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">individual_metadata!$A$1:$K$303</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1074">
   <si>
     <t>region</t>
   </si>
@@ -3256,6 +3256,12 @@
   </si>
   <si>
     <t>Count of arch_id</t>
+  </si>
+  <si>
+    <t>ASR 13II/ASR 2391</t>
+  </si>
+  <si>
+    <t>P375</t>
   </si>
 </sst>
 </file>
@@ -3402,45 +3408,49 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3991,9 +4001,6 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4020,13 +4027,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4091,7 +4101,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Katherine Eaton" refreshedDate="44442.640858101855" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="303" xr:uid="{0F84734D-BE39-4448-8D61-7D1CFE898D3C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K304" sheet="individual_metadata"/>
+    <worksheetSource ref="A1:K303" sheet="individual_metadata"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="arch_id" numFmtId="0">
@@ -8098,7 +8108,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83CCB5E7-45AC-4FE6-B16C-07CBB138683B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83CCB5E7-45AC-4FE6-B16C-07CBB138683B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -8506,8 +8516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8517,7 +8527,9 @@
     <col min="4" max="4" width="8.7265625" style="1"/>
     <col min="5" max="6" width="15.90625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="12.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -8593,7 +8605,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>1072</v>
       </c>
       <c r="D3" s="3">
         <v>28</v>
@@ -8988,14 +9000,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C5B376-7889-4711-B365-A97417F1D8CC}">
-  <dimension ref="A1:K304"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:K304"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
     <col min="9" max="9" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9283,7 +9300,7 @@
       <c r="A9" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>570</v>
       </c>
       <c r="C9" s="17">
@@ -9307,7 +9324,7 @@
       <c r="I9" s="18">
         <v>1800</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="45" t="s">
         <v>571</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -9511,7 +9528,7 @@
       <c r="G15" s="18">
         <v>1350</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <v>1550</v>
       </c>
       <c r="I15" s="18">
@@ -9546,7 +9563,7 @@
       <c r="G16" s="18">
         <v>1350</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>1550</v>
       </c>
       <c r="I16" s="18">
@@ -9563,7 +9580,7 @@
       <c r="A17" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="42" t="s">
         <v>906</v>
       </c>
       <c r="C17" s="17">
@@ -9633,7 +9650,7 @@
       <c r="A19" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>591</v>
       </c>
       <c r="C19" s="17">
@@ -9721,7 +9738,7 @@
       <c r="G21" s="18">
         <v>1350</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>1550</v>
       </c>
       <c r="I21" s="18">
@@ -9756,7 +9773,7 @@
       <c r="G22" s="18">
         <v>1350</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>1550</v>
       </c>
       <c r="I22" s="18">
@@ -9791,7 +9808,7 @@
       <c r="G23" s="18">
         <v>1350</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>1550</v>
       </c>
       <c r="I23" s="18">
@@ -9826,7 +9843,7 @@
       <c r="G24" s="18">
         <v>1350</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>1550</v>
       </c>
       <c r="I24" s="18">
@@ -10088,7 +10105,7 @@
       <c r="A32" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>613</v>
       </c>
       <c r="C32" s="17">
@@ -10680,35 +10697,35 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
-        <v>973</v>
+      <c r="A49" s="15" t="s">
+        <v>516</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>8</v>
+        <v>517</v>
+      </c>
+      <c r="C49" s="17">
+        <v>267</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="28">
-        <v>1250</v>
-      </c>
-      <c r="H49" s="28">
+        <v>30</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="F49" s="18">
+        <v>3</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1350</v>
+      </c>
+      <c r="H49" s="41">
         <v>1550</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="18">
         <v>1550</v>
       </c>
-      <c r="J49" s="19" t="s">
-        <v>975</v>
+      <c r="J49" s="21" t="s">
+        <v>519</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>62</v>
@@ -10716,13 +10733,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C50" s="17">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>30</v>
@@ -10736,14 +10753,14 @@
       <c r="G50" s="18">
         <v>1350</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="41">
         <v>1550</v>
       </c>
       <c r="I50" s="18">
         <v>1550</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>62</v>
@@ -10751,19 +10768,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C51" s="17">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="F51" s="18">
         <v>3</v>
@@ -10771,14 +10788,14 @@
       <c r="G51" s="18">
         <v>1350</v>
       </c>
-      <c r="H51" s="42">
+      <c r="H51" s="41">
         <v>1550</v>
       </c>
       <c r="I51" s="18">
         <v>1550</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>62</v>
@@ -10786,13 +10803,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C52" s="17">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>30</v>
@@ -10806,14 +10823,14 @@
       <c r="G52" s="18">
         <v>1350</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="41">
         <v>1550</v>
       </c>
       <c r="I52" s="18">
         <v>1550</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K52" s="15" t="s">
         <v>62</v>
@@ -10821,19 +10838,19 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="C53" s="17">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="F53" s="18">
         <v>3</v>
@@ -10841,14 +10858,14 @@
       <c r="G53" s="18">
         <v>1350</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H53" s="41">
         <v>1550</v>
       </c>
       <c r="I53" s="18">
         <v>1550</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>62</v>
@@ -10856,19 +10873,19 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C54" s="17">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="F54" s="18">
         <v>3</v>
@@ -10876,14 +10893,14 @@
       <c r="G54" s="18">
         <v>1350</v>
       </c>
-      <c r="H54" s="42">
+      <c r="H54" s="41">
         <v>1550</v>
       </c>
       <c r="I54" s="18">
         <v>1550</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>62</v>
@@ -10891,19 +10908,19 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C55" s="17">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="F55" s="18">
         <v>3</v>
@@ -10911,14 +10928,14 @@
       <c r="G55" s="18">
         <v>1350</v>
       </c>
-      <c r="H55" s="42">
+      <c r="H55" s="41">
         <v>1550</v>
       </c>
       <c r="I55" s="18">
         <v>1550</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>62</v>
@@ -10926,19 +10943,19 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="C56" s="17">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="F56" s="18">
         <v>3</v>
@@ -10946,14 +10963,14 @@
       <c r="G56" s="18">
         <v>1350</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="41">
         <v>1550</v>
       </c>
       <c r="I56" s="18">
         <v>1550</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>62</v>
@@ -10961,34 +10978,34 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>484</v>
+        <v>854</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>485</v>
+        <v>855</v>
       </c>
       <c r="C57" s="17">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>486</v>
+        <v>856</v>
       </c>
       <c r="F57" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H57" s="42">
-        <v>1550</v>
+        <v>1250</v>
+      </c>
+      <c r="H57" s="18">
+        <v>1449</v>
       </c>
       <c r="I57" s="18">
-        <v>1550</v>
+        <v>1425</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>487</v>
+        <v>857</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>62</v>
@@ -10996,104 +11013,104 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
-        <v>854</v>
+        <v>497</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>855</v>
+        <v>498</v>
       </c>
       <c r="C58" s="17">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>856</v>
+        <v>486</v>
       </c>
       <c r="F58" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" s="18">
-        <v>1250</v>
-      </c>
-      <c r="H58" s="18">
-        <v>1449</v>
+        <v>1350</v>
+      </c>
+      <c r="H58" s="41">
+        <v>1550</v>
       </c>
       <c r="I58" s="18">
-        <v>1425</v>
+        <v>1550</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>857</v>
+        <v>499</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>497</v>
+        <v>818</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>498</v>
+        <v>819</v>
       </c>
       <c r="C59" s="17">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>486</v>
+        <v>820</v>
       </c>
       <c r="F59" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H59" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H59" s="18">
+        <v>1349</v>
       </c>
       <c r="I59" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>499</v>
+        <v>821</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
-        <v>818</v>
+        <v>533</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>819</v>
+        <v>534</v>
       </c>
       <c r="C60" s="17">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>820</v>
+        <v>535</v>
       </c>
       <c r="F60" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H60" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H60" s="41">
+        <v>1550</v>
       </c>
       <c r="I60" s="18">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>821</v>
+        <v>536</v>
       </c>
       <c r="K60" s="15" t="s">
         <v>62</v>
@@ -11101,34 +11118,34 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
-        <v>533</v>
+        <v>920</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>534</v>
+        <v>921</v>
       </c>
       <c r="C61" s="17">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>535</v>
+        <v>874</v>
       </c>
       <c r="F61" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H61" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H61" s="18">
+        <v>1349</v>
       </c>
       <c r="I61" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>536</v>
+        <v>922</v>
       </c>
       <c r="K61" s="15" t="s">
         <v>62</v>
@@ -11136,16 +11153,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
-        <v>920</v>
+        <v>879</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>921</v>
+        <v>880</v>
       </c>
       <c r="C62" s="17">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>874</v>
@@ -11163,7 +11180,7 @@
         <v>1325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>922</v>
+        <v>881</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>62</v>
@@ -11171,19 +11188,19 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C63" s="17">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="F63" s="18">
         <v>1</v>
@@ -11198,7 +11215,7 @@
         <v>1325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>62</v>
@@ -11206,19 +11223,19 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="C64" s="17">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="F64" s="18">
         <v>1</v>
@@ -11233,7 +11250,7 @@
         <v>1325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>62</v>
@@ -11241,19 +11258,19 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
-        <v>882</v>
+        <v>930</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>883</v>
+        <v>931</v>
       </c>
       <c r="C65" s="17">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="F65" s="18">
         <v>1</v>
@@ -11268,7 +11285,7 @@
         <v>1325</v>
       </c>
       <c r="J65" s="21" t="s">
-        <v>884</v>
+        <v>933</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>62</v>
@@ -11276,34 +11293,34 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
-        <v>930</v>
+        <v>391</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>931</v>
+        <v>392</v>
       </c>
       <c r="C66" s="17">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>932</v>
+        <v>393</v>
       </c>
       <c r="F66" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H66" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H66" s="41">
+        <v>1550</v>
       </c>
       <c r="I66" s="18">
-        <v>1325</v>
-      </c>
-      <c r="J66" s="21" t="s">
-        <v>933</v>
+        <v>1550</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>62</v>
@@ -11311,19 +11328,19 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C67" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="F67" s="18">
         <v>3</v>
@@ -11331,104 +11348,104 @@
       <c r="G67" s="18">
         <v>1350</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="41">
         <v>1550</v>
       </c>
       <c r="I67" s="18">
         <v>1550</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
-        <v>416</v>
+      <c r="A68" s="29" t="s">
+        <v>970</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="C68" s="17">
-        <v>21</v>
+        <v>971</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="F68" s="18">
-        <v>3</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H68" s="42">
+      <c r="E68" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="28">
+        <v>1150</v>
+      </c>
+      <c r="H68" s="28">
         <v>1550</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I68" s="28">
         <v>1550</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>418</v>
+        <v>972</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="29" t="s">
-        <v>970</v>
+      <c r="A69" s="15" t="s">
+        <v>401</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>971</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>8</v>
+        <v>402</v>
+      </c>
+      <c r="C69" s="17">
+        <v>17</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="28">
-        <v>1150</v>
-      </c>
-      <c r="H69" s="28">
+      <c r="E69" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="F69" s="18">
+        <v>3</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1350</v>
+      </c>
+      <c r="H69" s="41">
         <v>1550</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="18">
         <v>1550</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>972</v>
+        <v>404</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C70" s="17">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F70" s="18">
         <v>3</v>
@@ -11436,34 +11453,34 @@
       <c r="G70" s="18">
         <v>1350</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="41">
         <v>1550</v>
       </c>
       <c r="I70" s="18">
         <v>1550</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
-        <v>395</v>
+        <v>703</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>396</v>
+        <v>704</v>
       </c>
       <c r="C71" s="17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>393</v>
+        <v>695</v>
       </c>
       <c r="F71" s="18">
         <v>3</v>
@@ -11471,14 +11488,14 @@
       <c r="G71" s="18">
         <v>1350</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="41">
         <v>1550</v>
       </c>
       <c r="I71" s="18">
         <v>1550</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>397</v>
+        <v>705</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>62</v>
@@ -11486,19 +11503,19 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
-        <v>703</v>
+        <v>375</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>704</v>
+        <v>376</v>
       </c>
       <c r="C72" s="17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>695</v>
+        <v>373</v>
       </c>
       <c r="F72" s="18">
         <v>3</v>
@@ -11506,14 +11523,14 @@
       <c r="G72" s="18">
         <v>1350</v>
       </c>
-      <c r="H72" s="42">
+      <c r="H72" s="41">
         <v>1550</v>
       </c>
       <c r="I72" s="18">
         <v>1550</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>705</v>
+        <v>377</v>
       </c>
       <c r="K72" s="15" t="s">
         <v>62</v>
@@ -11521,19 +11538,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="C73" s="17">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="F73" s="18">
         <v>3</v>
@@ -11541,14 +11558,14 @@
       <c r="G73" s="18">
         <v>1350</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="41">
         <v>1550</v>
       </c>
       <c r="I73" s="18">
         <v>1550</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>62</v>
@@ -11556,19 +11573,19 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
-        <v>412</v>
+        <v>790</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>413</v>
+        <v>791</v>
       </c>
       <c r="C74" s="17">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>414</v>
+        <v>695</v>
       </c>
       <c r="F74" s="18">
         <v>3</v>
@@ -11576,34 +11593,34 @@
       <c r="G74" s="18">
         <v>1350</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="41">
         <v>1550</v>
       </c>
       <c r="I74" s="18">
         <v>1550</v>
       </c>
       <c r="J74" s="19" t="s">
-        <v>415</v>
+        <v>792</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
-        <v>790</v>
+        <v>690</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>791</v>
+        <v>691</v>
       </c>
       <c r="C75" s="17">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>695</v>
+        <v>476</v>
       </c>
       <c r="F75" s="18">
         <v>3</v>
@@ -11611,28 +11628,28 @@
       <c r="G75" s="18">
         <v>1350</v>
       </c>
-      <c r="H75" s="42">
+      <c r="H75" s="41">
         <v>1550</v>
       </c>
       <c r="I75" s="18">
         <v>1550</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>792</v>
+        <v>692</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
-        <v>690</v>
+        <v>474</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>691</v>
+        <v>475</v>
       </c>
       <c r="C76" s="17">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>10</v>
@@ -11646,14 +11663,14 @@
       <c r="G76" s="18">
         <v>1350</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="41">
         <v>1550</v>
       </c>
       <c r="I76" s="18">
         <v>1550</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>692</v>
+        <v>477</v>
       </c>
       <c r="K76" s="15" t="s">
         <v>62</v>
@@ -11661,19 +11678,19 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
-        <v>474</v>
+        <v>700</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="C77" s="17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>476</v>
+        <v>695</v>
       </c>
       <c r="F77" s="18">
         <v>3</v>
@@ -11681,14 +11698,14 @@
       <c r="G77" s="18">
         <v>1350</v>
       </c>
-      <c r="H77" s="42">
+      <c r="H77" s="41">
         <v>1550</v>
       </c>
       <c r="I77" s="18">
         <v>1550</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>477</v>
+        <v>702</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>62</v>
@@ -11696,19 +11713,19 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
-        <v>700</v>
+        <v>398</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>701</v>
+        <v>399</v>
       </c>
       <c r="C78" s="17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>695</v>
+        <v>393</v>
       </c>
       <c r="F78" s="18">
         <v>3</v>
@@ -11716,34 +11733,34 @@
       <c r="G78" s="18">
         <v>1350</v>
       </c>
-      <c r="H78" s="42">
+      <c r="H78" s="41">
         <v>1550</v>
       </c>
       <c r="I78" s="18">
         <v>1550</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>702</v>
+        <v>400</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>399</v>
+        <v>405</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="C79" s="17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F79" s="18">
         <v>3</v>
@@ -11751,14 +11768,14 @@
       <c r="G79" s="18">
         <v>1350</v>
       </c>
-      <c r="H79" s="42">
+      <c r="H79" s="41">
         <v>1550</v>
       </c>
       <c r="I79" s="18">
         <v>1550</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K79" s="15" t="s">
         <v>135</v>
@@ -11766,19 +11783,19 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>406</v>
+        <v>431</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>432</v>
       </c>
       <c r="C80" s="17">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F80" s="18">
         <v>3</v>
@@ -11786,28 +11803,28 @@
       <c r="G80" s="18">
         <v>1350</v>
       </c>
-      <c r="H80" s="42">
+      <c r="H80" s="41">
         <v>1550</v>
       </c>
       <c r="I80" s="18">
         <v>1550</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>432</v>
+        <v>422</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>423</v>
       </c>
       <c r="C81" s="17">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>10</v>
@@ -11821,14 +11838,14 @@
       <c r="G81" s="18">
         <v>1350</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="41">
         <v>1550</v>
       </c>
       <c r="I81" s="18">
         <v>1550</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>62</v>
@@ -11836,13 +11853,13 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C82" s="17">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>10</v>
@@ -11856,34 +11873,34 @@
       <c r="G82" s="18">
         <v>1350</v>
       </c>
-      <c r="H82" s="42">
+      <c r="H82" s="41">
         <v>1550</v>
       </c>
       <c r="I82" s="18">
         <v>1550</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
-        <v>447</v>
+        <v>697</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>448</v>
+        <v>698</v>
       </c>
       <c r="C83" s="17">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>414</v>
+        <v>695</v>
       </c>
       <c r="F83" s="18">
         <v>3</v>
@@ -11891,34 +11908,34 @@
       <c r="G83" s="18">
         <v>1350</v>
       </c>
-      <c r="H83" s="42">
+      <c r="H83" s="41">
         <v>1550</v>
       </c>
       <c r="I83" s="18">
         <v>1550</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>449</v>
+        <v>699</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
-        <v>697</v>
+        <v>512</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>698</v>
+        <v>513</v>
       </c>
       <c r="C84" s="17">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>695</v>
+        <v>514</v>
       </c>
       <c r="F84" s="18">
         <v>3</v>
@@ -11926,14 +11943,14 @@
       <c r="G84" s="18">
         <v>1350</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="41">
         <v>1550</v>
       </c>
       <c r="I84" s="18">
         <v>1550</v>
       </c>
-      <c r="J84" s="19" t="s">
-        <v>699</v>
+      <c r="J84" s="21" t="s">
+        <v>515</v>
       </c>
       <c r="K84" s="15" t="s">
         <v>62</v>
@@ -11941,34 +11958,34 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
-        <v>512</v>
+        <v>926</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>513</v>
+        <v>927</v>
       </c>
       <c r="C85" s="17">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>514</v>
+        <v>928</v>
       </c>
       <c r="F85" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H85" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H85" s="18">
+        <v>1349</v>
       </c>
       <c r="I85" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J85" s="21" t="s">
-        <v>515</v>
+        <v>929</v>
       </c>
       <c r="K85" s="15" t="s">
         <v>62</v>
@@ -11976,19 +11993,19 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
-        <v>926</v>
+        <v>835</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>927</v>
+        <v>836</v>
       </c>
       <c r="C86" s="17">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>928</v>
+        <v>824</v>
       </c>
       <c r="F86" s="18">
         <v>1</v>
@@ -12003,7 +12020,7 @@
         <v>1325</v>
       </c>
       <c r="J86" s="21" t="s">
-        <v>929</v>
+        <v>837</v>
       </c>
       <c r="K86" s="15" t="s">
         <v>62</v>
@@ -12011,19 +12028,19 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
-        <v>835</v>
+        <v>885</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>836</v>
+        <v>886</v>
       </c>
       <c r="C87" s="17">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>824</v>
+        <v>867</v>
       </c>
       <c r="F87" s="18">
         <v>1</v>
@@ -12038,7 +12055,7 @@
         <v>1325</v>
       </c>
       <c r="J87" s="21" t="s">
-        <v>837</v>
+        <v>887</v>
       </c>
       <c r="K87" s="15" t="s">
         <v>62</v>
@@ -12046,19 +12063,19 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
-        <v>885</v>
+        <v>842</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>886</v>
+        <v>843</v>
       </c>
       <c r="C88" s="17">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>867</v>
+        <v>824</v>
       </c>
       <c r="F88" s="18">
         <v>1</v>
@@ -12073,7 +12090,7 @@
         <v>1325</v>
       </c>
       <c r="J88" s="21" t="s">
-        <v>887</v>
+        <v>844</v>
       </c>
       <c r="K88" s="15" t="s">
         <v>62</v>
@@ -12081,13 +12098,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="C89" s="17">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>42</v>
@@ -12108,7 +12125,7 @@
         <v>1325</v>
       </c>
       <c r="J89" s="21" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="K89" s="15" t="s">
         <v>62</v>
@@ -12116,19 +12133,19 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="C90" s="17">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="F90" s="18">
         <v>1</v>
@@ -12143,7 +12160,7 @@
         <v>1325</v>
       </c>
       <c r="J90" s="21" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="K90" s="15" t="s">
         <v>62</v>
@@ -12151,19 +12168,19 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="C91" s="17">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="F91" s="18">
         <v>1</v>
@@ -12178,7 +12195,7 @@
         <v>1325</v>
       </c>
       <c r="J91" s="21" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="K91" s="15" t="s">
         <v>62</v>
@@ -12186,34 +12203,34 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
-        <v>826</v>
+        <v>508</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>827</v>
+        <v>509</v>
       </c>
       <c r="C92" s="17">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>824</v>
+        <v>510</v>
       </c>
       <c r="F92" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G92" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H92" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H92" s="41">
+        <v>1550</v>
       </c>
       <c r="I92" s="18">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="J92" s="21" t="s">
-        <v>828</v>
+        <v>511</v>
       </c>
       <c r="K92" s="15" t="s">
         <v>62</v>
@@ -12221,34 +12238,34 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
-        <v>508</v>
+        <v>814</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>509</v>
+        <v>815</v>
       </c>
       <c r="C93" s="17">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>510</v>
+        <v>816</v>
       </c>
       <c r="F93" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G93" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H93" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H93" s="18">
+        <v>1349</v>
       </c>
       <c r="I93" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J93" s="21" t="s">
-        <v>511</v>
+        <v>817</v>
       </c>
       <c r="K93" s="15" t="s">
         <v>62</v>
@@ -12256,19 +12273,19 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>814</v>
+        <v>861</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>815</v>
+        <v>862</v>
       </c>
       <c r="C94" s="17">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>816</v>
+        <v>863</v>
       </c>
       <c r="F94" s="18">
         <v>1</v>
@@ -12283,7 +12300,7 @@
         <v>1325</v>
       </c>
       <c r="J94" s="21" t="s">
-        <v>817</v>
+        <v>864</v>
       </c>
       <c r="K94" s="15" t="s">
         <v>62</v>
@@ -12291,19 +12308,19 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>861</v>
+        <v>350</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>862</v>
+        <v>351</v>
       </c>
       <c r="C95" s="17">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>863</v>
+        <v>352</v>
       </c>
       <c r="F95" s="18">
         <v>1</v>
@@ -12318,7 +12335,7 @@
         <v>1325</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>864</v>
+        <v>353</v>
       </c>
       <c r="K95" s="15" t="s">
         <v>62</v>
@@ -12326,34 +12343,34 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>351</v>
+        <v>548</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>549</v>
       </c>
       <c r="C96" s="17">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>352</v>
+        <v>546</v>
       </c>
       <c r="F96" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G96" s="18">
-        <v>1150</v>
+        <v>1600</v>
       </c>
       <c r="H96" s="18">
-        <v>1349</v>
+        <v>1800</v>
       </c>
       <c r="I96" s="18">
-        <v>1325</v>
-      </c>
-      <c r="J96" s="21" t="s">
-        <v>353</v>
+        <v>1800</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>550</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>62</v>
@@ -12361,13 +12378,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C97" s="17">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>32</v>
@@ -12388,7 +12405,7 @@
         <v>1800</v>
       </c>
       <c r="J97" s="19" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>62</v>
@@ -12396,13 +12413,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="C98" s="17">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>32</v>
@@ -12423,7 +12440,7 @@
         <v>1800</v>
       </c>
       <c r="J98" s="19" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="K98" s="15" t="s">
         <v>62</v>
@@ -12431,13 +12448,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C99" s="17">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>32</v>
@@ -12458,7 +12475,7 @@
         <v>1800</v>
       </c>
       <c r="J99" s="19" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="K99" s="15" t="s">
         <v>62</v>
@@ -12466,13 +12483,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C100" s="17">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>32</v>
@@ -12493,7 +12510,7 @@
         <v>1800</v>
       </c>
       <c r="J100" s="19" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="K100" s="15" t="s">
         <v>62</v>
@@ -12501,13 +12518,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C101" s="17">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>32</v>
@@ -12528,7 +12545,7 @@
         <v>1800</v>
       </c>
       <c r="J101" s="19" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K101" s="15" t="s">
         <v>62</v>
@@ -12536,13 +12553,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C102" s="17">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>32</v>
@@ -12563,7 +12580,7 @@
         <v>1800</v>
       </c>
       <c r="J102" s="19" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K102" s="15" t="s">
         <v>62</v>
@@ -12571,13 +12588,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="C103" s="17">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>32</v>
@@ -12598,7 +12615,7 @@
         <v>1800</v>
       </c>
       <c r="J103" s="19" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>62</v>
@@ -12606,13 +12623,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="C104" s="17">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>32</v>
@@ -12632,8 +12649,8 @@
       <c r="I104" s="18">
         <v>1800</v>
       </c>
-      <c r="J104" s="19" t="s">
-        <v>632</v>
+      <c r="J104" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="K104" s="15" t="s">
         <v>62</v>
@@ -12641,13 +12658,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C105" s="17">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>32</v>
@@ -12667,8 +12684,8 @@
       <c r="I105" s="18">
         <v>1800</v>
       </c>
-      <c r="J105" s="21" t="s">
-        <v>641</v>
+      <c r="J105" s="19" t="s">
+        <v>638</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>62</v>
@@ -12676,13 +12693,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C106" s="17">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>32</v>
@@ -12702,8 +12719,8 @@
       <c r="I106" s="18">
         <v>1800</v>
       </c>
-      <c r="J106" s="19" t="s">
-        <v>638</v>
+      <c r="J106" s="21" t="s">
+        <v>650</v>
       </c>
       <c r="K106" s="15" t="s">
         <v>62</v>
@@ -12711,48 +12728,48 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>649</v>
+        <v>459</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>460</v>
       </c>
       <c r="C107" s="17">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>546</v>
+        <v>414</v>
       </c>
       <c r="F107" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G107" s="18">
-        <v>1600</v>
-      </c>
-      <c r="H107" s="18">
-        <v>1800</v>
+        <v>1350</v>
+      </c>
+      <c r="H107" s="41">
+        <v>1550</v>
       </c>
       <c r="I107" s="18">
-        <v>1800</v>
-      </c>
-      <c r="J107" s="21" t="s">
-        <v>650</v>
+        <v>1550</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>461</v>
       </c>
       <c r="K107" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C108" s="17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>10</v>
@@ -12766,14 +12783,14 @@
       <c r="G108" s="18">
         <v>1350</v>
       </c>
-      <c r="H108" s="42">
+      <c r="H108" s="41">
         <v>1550</v>
       </c>
       <c r="I108" s="18">
         <v>1550</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K108" s="15" t="s">
         <v>139</v>
@@ -12781,13 +12798,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>457</v>
+        <v>428</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="C109" s="17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>10</v>
@@ -12801,28 +12818,28 @@
       <c r="G109" s="18">
         <v>1350</v>
       </c>
-      <c r="H109" s="42">
+      <c r="H109" s="41">
         <v>1550</v>
       </c>
       <c r="I109" s="18">
         <v>1550</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="K109" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C110" s="17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>10</v>
@@ -12836,14 +12853,14 @@
       <c r="G110" s="18">
         <v>1350</v>
       </c>
-      <c r="H110" s="42">
+      <c r="H110" s="41">
         <v>1550</v>
       </c>
       <c r="I110" s="18">
         <v>1550</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K110" s="15" t="s">
         <v>62</v>
@@ -12851,13 +12868,13 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>426</v>
+        <v>434</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>435</v>
       </c>
       <c r="C111" s="17">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>10</v>
@@ -12871,14 +12888,14 @@
       <c r="G111" s="18">
         <v>1350</v>
       </c>
-      <c r="H111" s="42">
+      <c r="H111" s="41">
         <v>1550</v>
       </c>
       <c r="I111" s="18">
         <v>1550</v>
       </c>
       <c r="J111" s="19" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>62</v>
@@ -12886,13 +12903,13 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C112" s="17">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>10</v>
@@ -12906,14 +12923,14 @@
       <c r="G112" s="18">
         <v>1350</v>
       </c>
-      <c r="H112" s="42">
+      <c r="H112" s="41">
         <v>1550</v>
       </c>
       <c r="I112" s="18">
         <v>1550</v>
       </c>
       <c r="J112" s="19" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="K112" s="15" t="s">
         <v>62</v>
@@ -12921,19 +12938,19 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="C113" s="17">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="F113" s="18">
         <v>3</v>
@@ -12941,14 +12958,14 @@
       <c r="G113" s="18">
         <v>1350</v>
       </c>
-      <c r="H113" s="42">
+      <c r="H113" s="41">
         <v>1550</v>
       </c>
       <c r="I113" s="18">
         <v>1550</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>62</v>
@@ -12956,19 +12973,19 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="15" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C114" s="17">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="F114" s="18">
         <v>3</v>
@@ -12976,17 +12993,17 @@
       <c r="G114" s="18">
         <v>1350</v>
       </c>
-      <c r="H114" s="42">
+      <c r="H114" s="41">
         <v>1550</v>
       </c>
       <c r="I114" s="18">
         <v>1550</v>
       </c>
       <c r="J114" s="19" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -12997,7 +13014,7 @@
         <v>454</v>
       </c>
       <c r="C115" s="17">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>10</v>
@@ -13011,7 +13028,7 @@
       <c r="G115" s="18">
         <v>1350</v>
       </c>
-      <c r="H115" s="42">
+      <c r="H115" s="41">
         <v>1550</v>
       </c>
       <c r="I115" s="18">
@@ -13026,13 +13043,13 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C116" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>10</v>
@@ -13046,49 +13063,49 @@
       <c r="G116" s="18">
         <v>1350</v>
       </c>
-      <c r="H116" s="42">
+      <c r="H116" s="41">
         <v>1550</v>
       </c>
       <c r="I116" s="18">
         <v>1550</v>
       </c>
       <c r="J116" s="19" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>438</v>
+        <v>712</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>713</v>
       </c>
       <c r="C117" s="17">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>414</v>
+        <v>152</v>
       </c>
       <c r="F117" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G117" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H117" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H117" s="18">
+        <v>1349</v>
       </c>
       <c r="I117" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>439</v>
+        <v>714</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>62</v>
@@ -13096,13 +13113,13 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
-        <v>712</v>
+        <v>476</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="C118" s="17">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>13</v>
@@ -13123,7 +13140,7 @@
         <v>1325</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="K118" s="15" t="s">
         <v>62</v>
@@ -13131,13 +13148,13 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
-        <v>476</v>
+        <v>706</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="C119" s="17">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>13</v>
@@ -13158,7 +13175,7 @@
         <v>1325</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="K119" s="15" t="s">
         <v>62</v>
@@ -13166,13 +13183,13 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="C120" s="17">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>13</v>
@@ -13193,7 +13210,7 @@
         <v>1325</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="K120" s="15" t="s">
         <v>62</v>
@@ -13201,13 +13218,13 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C121" s="17">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>13</v>
@@ -13228,7 +13245,7 @@
         <v>1325</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K121" s="15" t="s">
         <v>62</v>
@@ -13236,13 +13253,13 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C122" s="17">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>13</v>
@@ -13263,7 +13280,7 @@
         <v>1325</v>
       </c>
       <c r="J122" s="19" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="K122" s="15" t="s">
         <v>62</v>
@@ -13271,13 +13288,13 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="C123" s="17">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>13</v>
@@ -13298,7 +13315,7 @@
         <v>1325</v>
       </c>
       <c r="J123" s="19" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>62</v>
@@ -13306,13 +13323,13 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="C124" s="17">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>13</v>
@@ -13333,7 +13350,7 @@
         <v>1325</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="K124" s="15" t="s">
         <v>62</v>
@@ -13341,13 +13358,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="C125" s="17">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>13</v>
@@ -13368,7 +13385,7 @@
         <v>1325</v>
       </c>
       <c r="J125" s="19" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="K125" s="15" t="s">
         <v>62</v>
@@ -13376,13 +13393,13 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
-        <v>746</v>
-      </c>
-      <c r="B126" s="40" t="s">
-        <v>747</v>
+        <v>752</v>
+      </c>
+      <c r="B126" s="39" t="s">
+        <v>753</v>
       </c>
       <c r="C126" s="17">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>13</v>
@@ -13403,7 +13420,7 @@
         <v>1325</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="K126" s="15" t="s">
         <v>62</v>
@@ -13411,13 +13428,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C127" s="17">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>13</v>
@@ -13438,7 +13455,7 @@
         <v>1325</v>
       </c>
       <c r="J127" s="19" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="K127" s="15" t="s">
         <v>62</v>
@@ -13446,13 +13463,13 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
-        <v>736</v>
+        <v>796</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>737</v>
+        <v>797</v>
       </c>
       <c r="C128" s="17">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>13</v>
@@ -13473,21 +13490,21 @@
         <v>1325</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C129" s="17">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>13</v>
@@ -13508,7 +13525,7 @@
         <v>1325</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="K129" s="15" t="s">
         <v>139</v>
@@ -13516,13 +13533,13 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="15" t="s">
-        <v>793</v>
+        <v>695</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>794</v>
+        <v>742</v>
       </c>
       <c r="C130" s="17">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>13</v>
@@ -13543,21 +13560,21 @@
         <v>1325</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C131" s="17">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>13</v>
@@ -13578,7 +13595,7 @@
         <v>1325</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="K131" s="15" t="s">
         <v>62</v>
@@ -13586,13 +13603,13 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C132" s="17">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>13</v>
@@ -13613,7 +13630,7 @@
         <v>1325</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K132" s="15" t="s">
         <v>62</v>
@@ -13621,13 +13638,13 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C133" s="17">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>13</v>
@@ -13648,7 +13665,7 @@
         <v>1325</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="K133" s="15" t="s">
         <v>62</v>
@@ -13656,13 +13673,13 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C134" s="17">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>13</v>
@@ -13683,7 +13700,7 @@
         <v>1325</v>
       </c>
       <c r="J134" s="19" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="K134" s="15" t="s">
         <v>62</v>
@@ -13691,13 +13708,13 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="15" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="C135" s="17">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>13</v>
@@ -13718,7 +13735,7 @@
         <v>1325</v>
       </c>
       <c r="J135" s="19" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="K135" s="15" t="s">
         <v>62</v>
@@ -13726,16 +13743,16 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>710</v>
+        <v>338</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="C136" s="17">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>152</v>
@@ -13753,7 +13770,7 @@
         <v>1325</v>
       </c>
       <c r="J136" s="19" t="s">
-        <v>711</v>
+        <v>340</v>
       </c>
       <c r="K136" s="15" t="s">
         <v>62</v>
@@ -13761,13 +13778,13 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c r="C137" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>10</v>
@@ -13788,7 +13805,7 @@
         <v>1325</v>
       </c>
       <c r="J137" s="19" t="s">
-        <v>340</v>
+        <v>182</v>
       </c>
       <c r="K137" s="15" t="s">
         <v>62</v>
@@ -13796,13 +13813,13 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C138" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>10</v>
@@ -13823,7 +13840,7 @@
         <v>1325</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K138" s="15" t="s">
         <v>62</v>
@@ -13831,16 +13848,16 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>178</v>
+        <v>770</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>771</v>
       </c>
       <c r="C139" s="17">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E139" s="18" t="s">
         <v>152</v>
@@ -13858,7 +13875,7 @@
         <v>1325</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>179</v>
+        <v>772</v>
       </c>
       <c r="K139" s="15" t="s">
         <v>62</v>
@@ -13866,13 +13883,13 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="C140" s="17">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>13</v>
@@ -13893,7 +13910,7 @@
         <v>1325</v>
       </c>
       <c r="J140" s="19" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="K140" s="15" t="s">
         <v>62</v>
@@ -13901,13 +13918,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="15" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C141" s="17">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>13</v>
@@ -13928,7 +13945,7 @@
         <v>1325</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="K141" s="15" t="s">
         <v>62</v>
@@ -13936,13 +13953,13 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="15" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="C142" s="17">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>13</v>
@@ -13963,42 +13980,42 @@
         <v>1325</v>
       </c>
       <c r="J142" s="19" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="K142" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="s">
-        <v>805</v>
+        <v>993</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="C143" s="17">
-        <v>126</v>
+        <v>994</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F143" s="18">
-        <v>1</v>
-      </c>
-      <c r="G143" s="18">
+      <c r="E143" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="28">
         <v>1150</v>
       </c>
       <c r="H143" s="18">
         <v>1349</v>
       </c>
-      <c r="I143" s="18">
+      <c r="I143" s="28">
         <v>1325</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>807</v>
+        <v>995</v>
       </c>
       <c r="K143" s="15" t="s">
         <v>139</v>
@@ -14006,51 +14023,51 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="15" t="s">
-        <v>993</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>994</v>
-      </c>
-      <c r="C144" s="31" t="s">
-        <v>8</v>
+        <v>150</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="17">
+        <v>2</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G144" s="28">
+        <v>10</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F144" s="18">
+        <v>1</v>
+      </c>
+      <c r="G144" s="18">
         <v>1150</v>
       </c>
       <c r="H144" s="18">
         <v>1349</v>
       </c>
-      <c r="I144" s="28">
+      <c r="I144" s="18">
         <v>1325</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>995</v>
+        <v>153</v>
       </c>
       <c r="K144" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>151</v>
+        <v>802</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>803</v>
       </c>
       <c r="C145" s="17">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E145" s="18" t="s">
         <v>152</v>
@@ -14068,24 +14085,24 @@
         <v>1325</v>
       </c>
       <c r="J145" s="19" t="s">
-        <v>153</v>
+        <v>804</v>
       </c>
       <c r="K145" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
-        <v>802</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>803</v>
+        <v>344</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C146" s="17">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E146" s="18" t="s">
         <v>152</v>
@@ -14103,7 +14120,7 @@
         <v>1325</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>804</v>
+        <v>346</v>
       </c>
       <c r="K146" s="15" t="s">
         <v>139</v>
@@ -14111,16 +14128,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>345</v>
+        <v>773</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>774</v>
       </c>
       <c r="C147" s="17">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E147" s="18" t="s">
         <v>152</v>
@@ -14138,21 +14155,21 @@
         <v>1325</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>346</v>
+        <v>775</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C148" s="17">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>13</v>
@@ -14173,7 +14190,7 @@
         <v>1325</v>
       </c>
       <c r="J148" s="19" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="K148" s="15" t="s">
         <v>62</v>
@@ -14181,13 +14198,13 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="15" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="C149" s="17">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>13</v>
@@ -14208,21 +14225,21 @@
         <v>1325</v>
       </c>
       <c r="J149" s="19" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="K149" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>809</v>
+        <v>762</v>
       </c>
       <c r="C150" s="17">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>13</v>
@@ -14243,21 +14260,21 @@
         <v>1325</v>
       </c>
       <c r="J150" s="19" t="s">
-        <v>810</v>
+        <v>763</v>
       </c>
       <c r="K150" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="15" t="s">
-        <v>761</v>
+        <v>799</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>762</v>
+        <v>800</v>
       </c>
       <c r="C151" s="17">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>13</v>
@@ -14278,21 +14295,21 @@
         <v>1325</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>763</v>
+        <v>801</v>
       </c>
       <c r="K151" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="15" t="s">
-        <v>799</v>
+        <v>758</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="C152" s="17">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>13</v>
@@ -14313,21 +14330,21 @@
         <v>1325</v>
       </c>
       <c r="J152" s="19" t="s">
-        <v>801</v>
+        <v>760</v>
       </c>
       <c r="K152" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="15" t="s">
-        <v>758</v>
+        <v>811</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>759</v>
+        <v>812</v>
       </c>
       <c r="C153" s="17">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>13</v>
@@ -14348,21 +14365,21 @@
         <v>1325</v>
       </c>
       <c r="J153" s="19" t="s">
-        <v>760</v>
+        <v>813</v>
       </c>
       <c r="K153" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="15" t="s">
-        <v>811</v>
+        <v>767</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>812</v>
+        <v>768</v>
       </c>
       <c r="C154" s="17">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>13</v>
@@ -14383,21 +14400,21 @@
         <v>1325</v>
       </c>
       <c r="J154" s="19" t="s">
-        <v>813</v>
+        <v>769</v>
       </c>
       <c r="K154" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
-        <v>767</v>
+        <v>380</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="C155" s="17">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>13</v>
@@ -14418,7 +14435,7 @@
         <v>1325</v>
       </c>
       <c r="J155" s="19" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="K155" s="15" t="s">
         <v>62</v>
@@ -14426,13 +14443,13 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
-        <v>380</v>
+        <v>779</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C156" s="17">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>13</v>
@@ -14453,7 +14470,7 @@
         <v>1325</v>
       </c>
       <c r="J156" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K156" s="15" t="s">
         <v>62</v>
@@ -14461,13 +14478,13 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="15" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="C157" s="17">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>13</v>
@@ -14488,7 +14505,7 @@
         <v>1325</v>
       </c>
       <c r="J157" s="19" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="K157" s="15" t="s">
         <v>62</v>
@@ -14496,34 +14513,34 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>785</v>
+        <v>364</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="C158" s="17">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F158" s="18">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="G158" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H158" s="18">
-        <v>1349</v>
+        <v>1250</v>
+      </c>
+      <c r="H158" s="41">
+        <v>1550</v>
       </c>
       <c r="I158" s="18">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="J158" s="19" t="s">
-        <v>786</v>
+        <v>366</v>
       </c>
       <c r="K158" s="15" t="s">
         <v>62</v>
@@ -14531,34 +14548,34 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>365</v>
+        <v>341</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="C159" s="17">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F159" s="18" t="s">
-        <v>60</v>
+        <v>152</v>
+      </c>
+      <c r="F159" s="18">
+        <v>1</v>
       </c>
       <c r="G159" s="18">
-        <v>1250</v>
-      </c>
-      <c r="H159" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H159" s="18">
+        <v>1349</v>
       </c>
       <c r="I159" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J159" s="19" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="K159" s="15" t="s">
         <v>62</v>
@@ -14566,13 +14583,13 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="C160" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>10</v>
@@ -14593,56 +14610,56 @@
         <v>1325</v>
       </c>
       <c r="J160" s="19" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K160" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>348</v>
+        <v>274</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="C161" s="17">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="F161" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" s="18">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="H161" s="18">
-        <v>1349</v>
+        <v>1449</v>
       </c>
       <c r="I161" s="18">
-        <v>1325</v>
-      </c>
-      <c r="J161" s="19" t="s">
-        <v>349</v>
+        <v>1425</v>
+      </c>
+      <c r="J161" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="K161" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="15" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C162" s="17">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>21</v>
@@ -14663,21 +14680,21 @@
         <v>1425</v>
       </c>
       <c r="J162" s="25" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K162" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="15" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="C163" s="17">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>21</v>
@@ -14698,42 +14715,42 @@
         <v>1425</v>
       </c>
       <c r="J163" s="25" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="K163" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="15" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="C164" s="17">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F164" s="18">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="G164" s="18">
         <v>1250</v>
       </c>
-      <c r="H164" s="18">
-        <v>1449</v>
+      <c r="H164" s="41">
+        <v>1550</v>
       </c>
       <c r="I164" s="18">
-        <v>1425</v>
-      </c>
-      <c r="J164" s="25" t="s">
-        <v>279</v>
+        <v>1550</v>
+      </c>
+      <c r="J164" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="K164" s="15" t="s">
         <v>62</v>
@@ -14741,13 +14758,13 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C165" s="17">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>7</v>
@@ -14761,14 +14778,14 @@
       <c r="G165" s="18">
         <v>1250</v>
       </c>
-      <c r="H165" s="42">
+      <c r="H165" s="41">
         <v>1550</v>
       </c>
       <c r="I165" s="18">
         <v>1550</v>
       </c>
       <c r="J165" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K165" s="15" t="s">
         <v>62</v>
@@ -14776,13 +14793,13 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C166" s="17">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>7</v>
@@ -14796,14 +14813,14 @@
       <c r="G166" s="18">
         <v>1250</v>
       </c>
-      <c r="H166" s="42">
+      <c r="H166" s="41">
         <v>1550</v>
       </c>
       <c r="I166" s="18">
         <v>1550</v>
       </c>
       <c r="J166" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K166" s="15" t="s">
         <v>62</v>
@@ -14811,13 +14828,13 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C167" s="17">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>7</v>
@@ -14831,14 +14848,14 @@
       <c r="G167" s="18">
         <v>1250</v>
       </c>
-      <c r="H167" s="42">
+      <c r="H167" s="41">
         <v>1550</v>
       </c>
       <c r="I167" s="18">
         <v>1550</v>
       </c>
       <c r="J167" s="19" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="K167" s="15" t="s">
         <v>62</v>
@@ -14846,13 +14863,13 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C168" s="17">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>7</v>
@@ -14866,14 +14883,14 @@
       <c r="G168" s="18">
         <v>1250</v>
       </c>
-      <c r="H168" s="42">
+      <c r="H168" s="41">
         <v>1550</v>
       </c>
       <c r="I168" s="18">
         <v>1550</v>
       </c>
       <c r="J168" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K168" s="15" t="s">
         <v>62</v>
@@ -14881,13 +14898,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C169" s="17">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>7</v>
@@ -14901,14 +14918,14 @@
       <c r="G169" s="18">
         <v>1250</v>
       </c>
-      <c r="H169" s="42">
+      <c r="H169" s="41">
         <v>1550</v>
       </c>
       <c r="I169" s="18">
         <v>1550</v>
       </c>
       <c r="J169" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>62</v>
@@ -14916,13 +14933,13 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C170" s="17">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>7</v>
@@ -14936,14 +14953,14 @@
       <c r="G170" s="18">
         <v>1250</v>
       </c>
-      <c r="H170" s="42">
+      <c r="H170" s="41">
         <v>1550</v>
       </c>
       <c r="I170" s="18">
         <v>1550</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K170" s="15" t="s">
         <v>62</v>
@@ -14951,13 +14968,13 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C171" s="17">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>7</v>
@@ -14971,14 +14988,14 @@
       <c r="G171" s="18">
         <v>1250</v>
       </c>
-      <c r="H171" s="42">
+      <c r="H171" s="41">
         <v>1550</v>
       </c>
       <c r="I171" s="18">
         <v>1550</v>
       </c>
       <c r="J171" s="19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K171" s="15" t="s">
         <v>62</v>
@@ -14986,13 +15003,13 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C172" s="17">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>7</v>
@@ -15006,14 +15023,14 @@
       <c r="G172" s="18">
         <v>1250</v>
       </c>
-      <c r="H172" s="42">
+      <c r="H172" s="41">
         <v>1550</v>
       </c>
       <c r="I172" s="18">
         <v>1550</v>
       </c>
       <c r="J172" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K172" s="15" t="s">
         <v>62</v>
@@ -15021,34 +15038,34 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="15" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="C173" s="17">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F173" s="18" t="s">
-        <v>60</v>
+        <v>185</v>
+      </c>
+      <c r="F173" s="18">
+        <v>2</v>
       </c>
       <c r="G173" s="18">
         <v>1250</v>
       </c>
-      <c r="H173" s="42">
-        <v>1550</v>
+      <c r="H173" s="18">
+        <v>1449</v>
       </c>
       <c r="I173" s="18">
-        <v>1550</v>
+        <v>1425</v>
       </c>
       <c r="J173" s="19" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="K173" s="15" t="s">
         <v>62</v>
@@ -15056,13 +15073,13 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C174" s="17">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>18</v>
@@ -15083,7 +15100,7 @@
         <v>1425</v>
       </c>
       <c r="J174" s="19" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K174" s="15" t="s">
         <v>62</v>
@@ -15091,13 +15108,13 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="C175" s="17">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>18</v>
@@ -15118,21 +15135,21 @@
         <v>1425</v>
       </c>
       <c r="J175" s="19" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="K175" s="15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="15" t="s">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="C176" s="17">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>18</v>
@@ -15153,21 +15170,21 @@
         <v>1425</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="K176" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C177" s="17">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>18</v>
@@ -15188,7 +15205,7 @@
         <v>1425</v>
       </c>
       <c r="J177" s="19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K177" s="15" t="s">
         <v>62</v>
@@ -15196,13 +15213,13 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C178" s="17">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>18</v>
@@ -15223,7 +15240,7 @@
         <v>1425</v>
       </c>
       <c r="J178" s="19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K178" s="15" t="s">
         <v>62</v>
@@ -15231,13 +15248,13 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C179" s="17">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>18</v>
@@ -15258,7 +15275,7 @@
         <v>1425</v>
       </c>
       <c r="J179" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K179" s="15" t="s">
         <v>62</v>
@@ -15266,13 +15283,13 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="C180" s="17">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>18</v>
@@ -15293,21 +15310,21 @@
         <v>1425</v>
       </c>
       <c r="J180" s="19" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="K180" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="C181" s="17">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>18</v>
@@ -15328,21 +15345,21 @@
         <v>1425</v>
       </c>
       <c r="J181" s="19" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="K181" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C182" s="17">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>18</v>
@@ -15363,7 +15380,7 @@
         <v>1425</v>
       </c>
       <c r="J182" s="19" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K182" s="15" t="s">
         <v>62</v>
@@ -15371,13 +15388,13 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C183" s="17">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>18</v>
@@ -15398,7 +15415,7 @@
         <v>1425</v>
       </c>
       <c r="J183" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K183" s="15" t="s">
         <v>62</v>
@@ -15406,13 +15423,13 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C184" s="17">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>18</v>
@@ -15433,7 +15450,7 @@
         <v>1425</v>
       </c>
       <c r="J184" s="19" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K184" s="15" t="s">
         <v>62</v>
@@ -15441,13 +15458,13 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C185" s="17">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>18</v>
@@ -15468,21 +15485,21 @@
         <v>1425</v>
       </c>
       <c r="J185" s="19" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="K185" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186" s="15" t="s">
-        <v>187</v>
+      <c r="A186" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C186" s="17">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D186" s="15" t="s">
         <v>18</v>
@@ -15503,24 +15520,24 @@
         <v>1425</v>
       </c>
       <c r="J186" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K186" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187" s="24" t="s">
-        <v>190</v>
+      <c r="A187" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C187" s="17">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E187" s="18" t="s">
         <v>185</v>
@@ -15538,7 +15555,7 @@
         <v>1425</v>
       </c>
       <c r="J187" s="19" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="K187" s="15" t="s">
         <v>62</v>
@@ -15546,13 +15563,13 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C188" s="17">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>16</v>
@@ -15573,7 +15590,7 @@
         <v>1425</v>
       </c>
       <c r="J188" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K188" s="15" t="s">
         <v>62</v>
@@ -15581,13 +15598,13 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C189" s="17">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>16</v>
@@ -15608,7 +15625,7 @@
         <v>1425</v>
       </c>
       <c r="J189" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K189" s="15" t="s">
         <v>62</v>
@@ -15616,13 +15633,13 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C190" s="17">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>16</v>
@@ -15643,7 +15660,7 @@
         <v>1425</v>
       </c>
       <c r="J190" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K190" s="15" t="s">
         <v>62</v>
@@ -15651,13 +15668,13 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C191" s="17">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>16</v>
@@ -15678,7 +15695,7 @@
         <v>1425</v>
       </c>
       <c r="J191" s="19" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K191" s="15" t="s">
         <v>62</v>
@@ -15686,13 +15703,13 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C192" s="17">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>16</v>
@@ -15713,7 +15730,7 @@
         <v>1425</v>
       </c>
       <c r="J192" s="19" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K192" s="15" t="s">
         <v>62</v>
@@ -15721,13 +15738,13 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="15" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="C193" s="17">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>16</v>
@@ -15748,24 +15765,24 @@
         <v>1425</v>
       </c>
       <c r="J193" s="19" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="15" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C194" s="17">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E194" s="18" t="s">
         <v>185</v>
@@ -15782,22 +15799,22 @@
       <c r="I194" s="18">
         <v>1425</v>
       </c>
-      <c r="J194" s="19" t="s">
-        <v>318</v>
+      <c r="J194" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C195" s="17">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>20</v>
@@ -15818,7 +15835,7 @@
         <v>1425</v>
       </c>
       <c r="J195" s="25" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K195" s="15" t="s">
         <v>62</v>
@@ -15826,13 +15843,13 @@
     </row>
     <row r="196" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C196" s="17">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>20</v>
@@ -15853,7 +15870,7 @@
         <v>1425</v>
       </c>
       <c r="J196" s="25" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K196" s="15" t="s">
         <v>62</v>
@@ -15861,13 +15878,13 @@
     </row>
     <row r="197" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="C197" s="17">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>20</v>
@@ -15888,21 +15905,21 @@
         <v>1425</v>
       </c>
       <c r="J197" s="25" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="C198" s="17">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>20</v>
@@ -15923,21 +15940,21 @@
         <v>1425</v>
       </c>
       <c r="J198" s="25" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C199" s="17">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>20</v>
@@ -15958,21 +15975,21 @@
         <v>1425</v>
       </c>
       <c r="J199" s="25" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K199" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>293</v>
+        <v>310</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="C200" s="17">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>20</v>
@@ -15992,22 +16009,22 @@
       <c r="I200" s="18">
         <v>1425</v>
       </c>
-      <c r="J200" s="25" t="s">
-        <v>294</v>
+      <c r="J200" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="K200" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>311</v>
+        <v>298</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="C201" s="17">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>20</v>
@@ -16027,22 +16044,22 @@
       <c r="I201" s="18">
         <v>1425</v>
       </c>
-      <c r="J201" s="16" t="s">
-        <v>312</v>
+      <c r="J201" s="25" t="s">
+        <v>300</v>
       </c>
       <c r="K201" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C202" s="17">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>20</v>
@@ -16063,7 +16080,7 @@
         <v>1425</v>
       </c>
       <c r="J202" s="25" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K202" s="15" t="s">
         <v>62</v>
@@ -16071,13 +16088,13 @@
     </row>
     <row r="203" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="15" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C203" s="17">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>20</v>
@@ -16098,7 +16115,7 @@
         <v>1425</v>
       </c>
       <c r="J203" s="25" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K203" s="15" t="s">
         <v>62</v>
@@ -16106,13 +16123,13 @@
     </row>
     <row r="204" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C204" s="17">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>20</v>
@@ -16133,7 +16150,7 @@
         <v>1425</v>
       </c>
       <c r="J204" s="25" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K204" s="15" t="s">
         <v>62</v>
@@ -16141,16 +16158,16 @@
     </row>
     <row r="205" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="15" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="C205" s="17">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E205" s="18" t="s">
         <v>185</v>
@@ -16168,7 +16185,7 @@
         <v>1425</v>
       </c>
       <c r="J205" s="25" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="K205" s="15" t="s">
         <v>62</v>
@@ -16176,13 +16193,13 @@
     </row>
     <row r="206" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C206" s="17">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>21</v>
@@ -16203,7 +16220,7 @@
         <v>1425</v>
       </c>
       <c r="J206" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K206" s="15" t="s">
         <v>62</v>
@@ -16211,13 +16228,13 @@
     </row>
     <row r="207" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C207" s="17">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>21</v>
@@ -16238,7 +16255,7 @@
         <v>1425</v>
       </c>
       <c r="J207" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K207" s="15" t="s">
         <v>62</v>
@@ -16246,13 +16263,13 @@
     </row>
     <row r="208" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C208" s="17">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D208" s="15" t="s">
         <v>21</v>
@@ -16273,7 +16290,7 @@
         <v>1425</v>
       </c>
       <c r="J208" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K208" s="15" t="s">
         <v>62</v>
@@ -16281,13 +16298,13 @@
     </row>
     <row r="209" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C209" s="17">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D209" s="15" t="s">
         <v>21</v>
@@ -16308,7 +16325,7 @@
         <v>1425</v>
       </c>
       <c r="J209" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K209" s="15" t="s">
         <v>62</v>
@@ -16316,13 +16333,13 @@
     </row>
     <row r="210" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C210" s="17">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>21</v>
@@ -16343,7 +16360,7 @@
         <v>1425</v>
       </c>
       <c r="J210" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K210" s="15" t="s">
         <v>62</v>
@@ -16351,13 +16368,13 @@
     </row>
     <row r="211" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="15" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>248</v>
+        <v>323</v>
       </c>
       <c r="C211" s="17">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>21</v>
@@ -16378,21 +16395,21 @@
         <v>1425</v>
       </c>
       <c r="J211" s="25" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="K211" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="C212" s="17">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D212" s="15" t="s">
         <v>21</v>
@@ -16413,21 +16430,21 @@
         <v>1425</v>
       </c>
       <c r="J212" s="25" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="K212" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="C213" s="17">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D213" s="15" t="s">
         <v>21</v>
@@ -16448,21 +16465,21 @@
         <v>1425</v>
       </c>
       <c r="J213" s="25" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="K213" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="15" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C214" s="17">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D214" s="15" t="s">
         <v>21</v>
@@ -16483,21 +16500,21 @@
         <v>1425</v>
       </c>
       <c r="J214" s="25" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="K214" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C215" s="17">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>21</v>
@@ -16518,7 +16535,7 @@
         <v>1425</v>
       </c>
       <c r="J215" s="25" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K215" s="15" t="s">
         <v>62</v>
@@ -16526,13 +16543,13 @@
     </row>
     <row r="216" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="15" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C216" s="17">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D216" s="15" t="s">
         <v>21</v>
@@ -16553,7 +16570,7 @@
         <v>1425</v>
       </c>
       <c r="J216" s="25" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="K216" s="15" t="s">
         <v>62</v>
@@ -16561,13 +16578,13 @@
     </row>
     <row r="217" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C217" s="17">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D217" s="15" t="s">
         <v>21</v>
@@ -16588,7 +16605,7 @@
         <v>1425</v>
       </c>
       <c r="J217" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K217" s="15" t="s">
         <v>62</v>
@@ -16596,13 +16613,13 @@
     </row>
     <row r="218" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="15" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="C218" s="17">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>21</v>
@@ -16623,21 +16640,21 @@
         <v>1425</v>
       </c>
       <c r="J218" s="25" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="K218" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="15" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="C219" s="17">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>21</v>
@@ -16658,27 +16675,27 @@
         <v>1425</v>
       </c>
       <c r="J219" s="25" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="K219" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="C220" s="17">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D220" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E220" s="18" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="F220" s="18">
         <v>2</v>
@@ -16693,42 +16710,42 @@
         <v>1425</v>
       </c>
       <c r="J220" s="25" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="K220" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="15" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="C221" s="17">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E221" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F221" s="18">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="F221" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="G221" s="18">
-        <v>1250</v>
-      </c>
-      <c r="H221" s="18">
-        <v>1449</v>
+        <v>1350</v>
+      </c>
+      <c r="H221" s="41">
+        <v>1550</v>
       </c>
       <c r="I221" s="18">
-        <v>1425</v>
-      </c>
-      <c r="J221" s="25" t="s">
-        <v>337</v>
+        <v>1550</v>
+      </c>
+      <c r="J221" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="K221" s="15" t="s">
         <v>62</v>
@@ -16736,13 +16753,13 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C222" s="17">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D222" s="15" t="s">
         <v>7</v>
@@ -16756,14 +16773,14 @@
       <c r="G222" s="18">
         <v>1350</v>
       </c>
-      <c r="H222" s="42">
+      <c r="H222" s="41">
         <v>1550</v>
       </c>
       <c r="I222" s="18">
         <v>1550</v>
       </c>
-      <c r="J222" s="16" t="s">
-        <v>104</v>
+      <c r="J222" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="K222" s="15" t="s">
         <v>62</v>
@@ -16771,13 +16788,13 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="15" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C223" s="17">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>7</v>
@@ -16791,28 +16808,28 @@
       <c r="G223" s="18">
         <v>1350</v>
       </c>
-      <c r="H223" s="42">
+      <c r="H223" s="41">
         <v>1550</v>
       </c>
       <c r="I223" s="18">
         <v>1550</v>
       </c>
       <c r="J223" s="19" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="K223" s="15" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="15" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C224" s="17">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D224" s="15" t="s">
         <v>7</v>
@@ -16826,28 +16843,28 @@
       <c r="G224" s="18">
         <v>1350</v>
       </c>
-      <c r="H224" s="42">
+      <c r="H224" s="41">
         <v>1550</v>
       </c>
       <c r="I224" s="18">
         <v>1550</v>
       </c>
       <c r="J224" s="19" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="K224" s="15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C225" s="17">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D225" s="15" t="s">
         <v>7</v>
@@ -16861,14 +16878,14 @@
       <c r="G225" s="18">
         <v>1350</v>
       </c>
-      <c r="H225" s="42">
+      <c r="H225" s="41">
         <v>1550</v>
       </c>
       <c r="I225" s="18">
         <v>1550</v>
       </c>
       <c r="J225" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K225" s="15" t="s">
         <v>62</v>
@@ -16876,13 +16893,13 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C226" s="17">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D226" s="15" t="s">
         <v>7</v>
@@ -16896,14 +16913,14 @@
       <c r="G226" s="18">
         <v>1350</v>
       </c>
-      <c r="H226" s="42">
+      <c r="H226" s="41">
         <v>1550</v>
       </c>
       <c r="I226" s="18">
         <v>1550</v>
       </c>
       <c r="J226" s="19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K226" s="15" t="s">
         <v>62</v>
@@ -16911,13 +16928,13 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C227" s="17">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D227" s="15" t="s">
         <v>7</v>
@@ -16931,14 +16948,14 @@
       <c r="G227" s="18">
         <v>1350</v>
       </c>
-      <c r="H227" s="42">
+      <c r="H227" s="41">
         <v>1550</v>
       </c>
       <c r="I227" s="18">
         <v>1550</v>
       </c>
       <c r="J227" s="19" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K227" s="15" t="s">
         <v>62</v>
@@ -16946,13 +16963,13 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="15" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C228" s="17">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D228" s="15" t="s">
         <v>7</v>
@@ -16966,84 +16983,84 @@
       <c r="G228" s="18">
         <v>1350</v>
       </c>
-      <c r="H228" s="42">
+      <c r="H228" s="41">
         <v>1550</v>
       </c>
       <c r="I228" s="18">
         <v>1550</v>
       </c>
       <c r="J228" s="19" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K228" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A229" s="15" t="s">
-        <v>105</v>
+      <c r="A229" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C229" s="17">
-        <v>61</v>
+        <v>148</v>
+      </c>
+      <c r="C229" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E229" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F229" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G229" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H229" s="42">
+      <c r="E229" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229" s="28">
+        <v>1250</v>
+      </c>
+      <c r="H229" s="28">
         <v>1550</v>
       </c>
-      <c r="I229" s="18">
+      <c r="I229" s="28">
         <v>1550</v>
       </c>
       <c r="J229" s="19" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K229" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A230" s="29" t="s">
-        <v>147</v>
+      <c r="A230" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C230" s="31" t="s">
-        <v>8</v>
+        <v>141</v>
+      </c>
+      <c r="C230" s="17">
+        <v>55</v>
       </c>
       <c r="D230" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E230" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G230" s="28">
-        <v>1250</v>
-      </c>
-      <c r="H230" s="28">
+      <c r="E230" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F230" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G230" s="18">
+        <v>1350</v>
+      </c>
+      <c r="H230" s="41">
         <v>1550</v>
       </c>
-      <c r="I230" s="28">
+      <c r="I230" s="18">
         <v>1550</v>
       </c>
-      <c r="J230" s="19" t="s">
-        <v>149</v>
+      <c r="J230" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="K230" s="15" t="s">
         <v>62</v>
@@ -17051,19 +17068,19 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C231" s="17">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="F231" s="18" t="s">
         <v>90</v>
@@ -17071,14 +17088,14 @@
       <c r="G231" s="18">
         <v>1350</v>
       </c>
-      <c r="H231" s="42">
+      <c r="H231" s="41">
         <v>1550</v>
       </c>
       <c r="I231" s="18">
         <v>1550</v>
       </c>
-      <c r="J231" s="16" t="s">
-        <v>143</v>
+      <c r="J231" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="K231" s="15" t="s">
         <v>62</v>
@@ -17086,13 +17103,13 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C232" s="17">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>7</v>
@@ -17106,14 +17123,14 @@
       <c r="G232" s="18">
         <v>1350</v>
       </c>
-      <c r="H232" s="42">
+      <c r="H232" s="41">
         <v>1550</v>
       </c>
       <c r="I232" s="18">
         <v>1550</v>
       </c>
       <c r="J232" s="19" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="K232" s="15" t="s">
         <v>62</v>
@@ -17121,13 +17138,13 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="15" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C233" s="17">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>7</v>
@@ -17141,28 +17158,28 @@
       <c r="G233" s="18">
         <v>1350</v>
       </c>
-      <c r="H233" s="42">
+      <c r="H233" s="41">
         <v>1550</v>
       </c>
       <c r="I233" s="18">
         <v>1550</v>
       </c>
       <c r="J233" s="19" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="K233" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C234" s="17">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>7</v>
@@ -17176,28 +17193,28 @@
       <c r="G234" s="18">
         <v>1350</v>
       </c>
-      <c r="H234" s="42">
+      <c r="H234" s="41">
         <v>1550</v>
       </c>
       <c r="I234" s="18">
         <v>1550</v>
       </c>
       <c r="J234" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K234" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="15" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C235" s="17">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>7</v>
@@ -17211,28 +17228,28 @@
       <c r="G235" s="18">
         <v>1350</v>
       </c>
-      <c r="H235" s="42">
+      <c r="H235" s="41">
         <v>1550</v>
       </c>
       <c r="I235" s="18">
         <v>1550</v>
       </c>
-      <c r="J235" s="19" t="s">
-        <v>134</v>
+      <c r="J235" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="K235" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="15" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C236" s="17">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>7</v>
@@ -17246,14 +17263,14 @@
       <c r="G236" s="18">
         <v>1350</v>
       </c>
-      <c r="H236" s="42">
+      <c r="H236" s="41">
         <v>1550</v>
       </c>
       <c r="I236" s="18">
         <v>1550</v>
       </c>
-      <c r="J236" s="16" t="s">
-        <v>95</v>
+      <c r="J236" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="K236" s="15" t="s">
         <v>62</v>
@@ -17261,13 +17278,13 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C237" s="17">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D237" s="15" t="s">
         <v>7</v>
@@ -17281,14 +17298,14 @@
       <c r="G237" s="18">
         <v>1350</v>
       </c>
-      <c r="H237" s="42">
+      <c r="H237" s="41">
         <v>1550</v>
       </c>
       <c r="I237" s="18">
         <v>1550</v>
       </c>
-      <c r="J237" s="19" t="s">
-        <v>119</v>
+      <c r="J237" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="K237" s="15" t="s">
         <v>62</v>
@@ -17296,19 +17313,19 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="15" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C238" s="17">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D238" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E238" s="18" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F238" s="18" t="s">
         <v>90</v>
@@ -17316,14 +17333,14 @@
       <c r="G238" s="18">
         <v>1350</v>
       </c>
-      <c r="H238" s="42">
+      <c r="H238" s="41">
         <v>1550</v>
       </c>
       <c r="I238" s="18">
         <v>1550</v>
       </c>
-      <c r="J238" s="16" t="s">
-        <v>98</v>
+      <c r="J238" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="K238" s="15" t="s">
         <v>62</v>
@@ -17331,19 +17348,19 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="15" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C239" s="17">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D239" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E239" s="18" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="F239" s="18" t="s">
         <v>90</v>
@@ -17351,14 +17368,14 @@
       <c r="G239" s="18">
         <v>1350</v>
       </c>
-      <c r="H239" s="42">
+      <c r="H239" s="41">
         <v>1550</v>
       </c>
       <c r="I239" s="18">
         <v>1550</v>
       </c>
       <c r="J239" s="19" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K239" s="15" t="s">
         <v>62</v>
@@ -17366,48 +17383,48 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
-        <v>129</v>
+        <v>990</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>130</v>
+        <v>991</v>
       </c>
       <c r="C240" s="17">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F240" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G240" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H240" s="42">
-        <v>1550</v>
-      </c>
-      <c r="I240" s="18">
-        <v>1550</v>
+        <v>18</v>
+      </c>
+      <c r="E240" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" s="28">
+        <v>1250</v>
+      </c>
+      <c r="H240" s="18">
+        <v>1449</v>
+      </c>
+      <c r="I240" s="28">
+        <v>1425</v>
       </c>
       <c r="J240" s="19" t="s">
-        <v>131</v>
+        <v>992</v>
       </c>
       <c r="K240" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="s">
-        <v>990</v>
+        <v>937</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>991</v>
+        <v>938</v>
       </c>
       <c r="C241" s="17">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>18</v>
@@ -17428,21 +17445,21 @@
         <v>1425</v>
       </c>
       <c r="J241" s="19" t="s">
-        <v>992</v>
+        <v>939</v>
       </c>
       <c r="K241" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C242" s="17">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>18</v>
@@ -17463,7 +17480,7 @@
         <v>1425</v>
       </c>
       <c r="J242" s="19" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="K242" s="15" t="s">
         <v>62</v>
@@ -17471,13 +17488,13 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="15" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="C243" s="17">
-        <v>145</v>
+        <v>997</v>
+      </c>
+      <c r="C243" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D243" s="15" t="s">
         <v>18</v>
@@ -17498,7 +17515,7 @@
         <v>1425</v>
       </c>
       <c r="J243" s="19" t="s">
-        <v>942</v>
+        <v>977</v>
       </c>
       <c r="K243" s="15" t="s">
         <v>62</v>
@@ -17506,10 +17523,10 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
-        <v>976</v>
+        <v>996</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>941</v>
+        <v>1073</v>
       </c>
       <c r="C244" s="31" t="s">
         <v>8</v>
@@ -17533,21 +17550,21 @@
         <v>1425</v>
       </c>
       <c r="J244" s="19" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
       <c r="K244" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>997</v>
-      </c>
-      <c r="C245" s="31" t="s">
-        <v>8</v>
+        <v>944</v>
+      </c>
+      <c r="C245" s="17">
+        <v>146</v>
       </c>
       <c r="D245" s="15" t="s">
         <v>18</v>
@@ -17568,21 +17585,21 @@
         <v>1425</v>
       </c>
       <c r="J245" s="19" t="s">
-        <v>998</v>
+        <v>945</v>
       </c>
       <c r="K245" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="s">
-        <v>943</v>
+        <v>978</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="C246" s="17">
-        <v>146</v>
+        <v>979</v>
+      </c>
+      <c r="C246" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>18</v>
@@ -17602,19 +17619,19 @@
       <c r="I246" s="28">
         <v>1425</v>
       </c>
-      <c r="J246" s="19" t="s">
-        <v>945</v>
+      <c r="J246" s="30" t="s">
+        <v>980</v>
       </c>
       <c r="K246" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A247" s="15" t="s">
-        <v>978</v>
+      <c r="A247" s="29" t="s">
+        <v>999</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="C247" s="31" t="s">
         <v>8</v>
@@ -17638,18 +17655,18 @@
         <v>1425</v>
       </c>
       <c r="J247" s="30" t="s">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="K247" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="29" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="C248" s="31" t="s">
         <v>8</v>
@@ -17673,21 +17690,21 @@
         <v>1425</v>
       </c>
       <c r="J248" s="30" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="K248" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="29" t="s">
-        <v>981</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A249" s="15" t="s">
+        <v>946</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="C249" s="31" t="s">
-        <v>8</v>
+        <v>947</v>
+      </c>
+      <c r="C249" s="17">
+        <v>147</v>
       </c>
       <c r="D249" s="15" t="s">
         <v>18</v>
@@ -17707,8 +17724,8 @@
       <c r="I249" s="28">
         <v>1425</v>
       </c>
-      <c r="J249" s="30" t="s">
-        <v>983</v>
+      <c r="J249" s="19" t="s">
+        <v>948</v>
       </c>
       <c r="K249" s="15" t="s">
         <v>62</v>
@@ -17716,13 +17733,13 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C250" s="17">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D250" s="15" t="s">
         <v>18</v>
@@ -17743,7 +17760,7 @@
         <v>1425</v>
       </c>
       <c r="J250" s="19" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="K250" s="15" t="s">
         <v>62</v>
@@ -17751,16 +17768,16 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="15" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C251" s="17">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E251" s="28" t="s">
         <v>8</v>
@@ -17778,7 +17795,7 @@
         <v>1425</v>
       </c>
       <c r="J251" s="19" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="K251" s="15" t="s">
         <v>62</v>
@@ -17786,13 +17803,13 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="15" t="s">
-        <v>952</v>
+        <v>984</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="C252" s="17">
-        <v>155</v>
+        <v>985</v>
+      </c>
+      <c r="C252" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D252" s="15" t="s">
         <v>16</v>
@@ -17813,7 +17830,7 @@
         <v>1425</v>
       </c>
       <c r="J252" s="19" t="s">
-        <v>954</v>
+        <v>986</v>
       </c>
       <c r="K252" s="15" t="s">
         <v>62</v>
@@ -17821,10 +17838,10 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
-        <v>984</v>
+        <v>934</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>985</v>
+        <v>935</v>
       </c>
       <c r="C253" s="31" t="s">
         <v>8</v>
@@ -17848,21 +17865,21 @@
         <v>1425</v>
       </c>
       <c r="J253" s="19" t="s">
-        <v>986</v>
+        <v>936</v>
       </c>
       <c r="K253" s="15" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="C254" s="31" t="s">
-        <v>8</v>
+        <v>956</v>
+      </c>
+      <c r="C254" s="17">
+        <v>162</v>
       </c>
       <c r="D254" s="15" t="s">
         <v>16</v>
@@ -17883,21 +17900,21 @@
         <v>1425</v>
       </c>
       <c r="J254" s="19" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="K254" s="15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="15" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C255" s="17">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D255" s="15" t="s">
         <v>16</v>
@@ -17918,7 +17935,7 @@
         <v>1425</v>
       </c>
       <c r="J255" s="19" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="K255" s="15" t="s">
         <v>62</v>
@@ -17926,13 +17943,13 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="15" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>959</v>
-      </c>
-      <c r="C256" s="17">
-        <v>164</v>
+        <v>988</v>
+      </c>
+      <c r="C256" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>16</v>
@@ -17953,18 +17970,18 @@
         <v>1425</v>
       </c>
       <c r="J256" s="19" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="K256" s="15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="C257" s="31" t="s">
         <v>8</v>
@@ -17988,21 +18005,21 @@
         <v>1425</v>
       </c>
       <c r="J257" s="19" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="K257" s="15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="15" t="s">
-        <v>1002</v>
+        <v>961</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C258" s="31" t="s">
-        <v>8</v>
+        <v>962</v>
+      </c>
+      <c r="C258" s="17">
+        <v>165</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>16</v>
@@ -18023,21 +18040,21 @@
         <v>1425</v>
       </c>
       <c r="J258" s="19" t="s">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="K258" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="15" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C259" s="17">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D259" s="15" t="s">
         <v>16</v>
@@ -18058,7 +18075,7 @@
         <v>1425</v>
       </c>
       <c r="J259" s="19" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="K259" s="15" t="s">
         <v>62</v>
@@ -18066,13 +18083,13 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="15" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C260" s="17">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D260" s="15" t="s">
         <v>16</v>
@@ -18093,7 +18110,7 @@
         <v>1425</v>
       </c>
       <c r="J260" s="19" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="K260" s="15" t="s">
         <v>62</v>
@@ -18101,34 +18118,34 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="B261" s="20" t="s">
-        <v>968</v>
+        <v>581</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>582</v>
       </c>
       <c r="C261" s="17">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E261" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F261" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G261" s="28">
-        <v>1250</v>
+        <v>32</v>
+      </c>
+      <c r="E261" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="F261" s="18">
+        <v>4</v>
+      </c>
+      <c r="G261" s="18">
+        <v>1600</v>
       </c>
       <c r="H261" s="18">
-        <v>1449</v>
-      </c>
-      <c r="I261" s="28">
-        <v>1425</v>
+        <v>1800</v>
+      </c>
+      <c r="I261" s="18">
+        <v>1800</v>
       </c>
       <c r="J261" s="19" t="s">
-        <v>969</v>
+        <v>583</v>
       </c>
       <c r="K261" s="15" t="s">
         <v>62</v>
@@ -18136,13 +18153,13 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C262" s="17">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D262" s="15" t="s">
         <v>32</v>
@@ -18163,7 +18180,7 @@
         <v>1800</v>
       </c>
       <c r="J262" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K262" s="15" t="s">
         <v>62</v>
@@ -18171,13 +18188,13 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="15" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C263" s="17">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>32</v>
@@ -18198,7 +18215,7 @@
         <v>1800</v>
       </c>
       <c r="J263" s="19" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="K263" s="15" t="s">
         <v>62</v>
@@ -18206,13 +18223,13 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C264" s="17">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D264" s="15" t="s">
         <v>32</v>
@@ -18233,7 +18250,7 @@
         <v>1800</v>
       </c>
       <c r="J264" s="19" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="K264" s="15" t="s">
         <v>62</v>
@@ -18241,13 +18258,13 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="15" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="C265" s="17">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D265" s="15" t="s">
         <v>32</v>
@@ -18268,7 +18285,7 @@
         <v>1800</v>
       </c>
       <c r="J265" s="19" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="K265" s="15" t="s">
         <v>62</v>
@@ -18276,13 +18293,13 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="15" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B266" s="22" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C266" s="17">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D266" s="15" t="s">
         <v>32</v>
@@ -18303,7 +18320,7 @@
         <v>1800</v>
       </c>
       <c r="J266" s="19" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="K266" s="15" t="s">
         <v>62</v>
@@ -18311,13 +18328,13 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="15" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="C267" s="17">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D267" s="15" t="s">
         <v>32</v>
@@ -18338,7 +18355,7 @@
         <v>1800</v>
       </c>
       <c r="J267" s="19" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="K267" s="15" t="s">
         <v>62</v>
@@ -18346,13 +18363,13 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="15" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C268" s="17">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>32</v>
@@ -18373,7 +18390,7 @@
         <v>1800</v>
       </c>
       <c r="J268" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K268" s="15" t="s">
         <v>62</v>
@@ -18381,13 +18398,13 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="15" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C269" s="17">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D269" s="15" t="s">
         <v>32</v>
@@ -18408,7 +18425,7 @@
         <v>1800</v>
       </c>
       <c r="J269" s="19" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="K269" s="15" t="s">
         <v>62</v>
@@ -18416,13 +18433,13 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="15" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="C270" s="17">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>32</v>
@@ -18442,8 +18459,8 @@
       <c r="I270" s="18">
         <v>1800</v>
       </c>
-      <c r="J270" s="19" t="s">
-        <v>635</v>
+      <c r="J270" s="21" t="s">
+        <v>662</v>
       </c>
       <c r="K270" s="15" t="s">
         <v>62</v>
@@ -18451,13 +18468,13 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="15" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="C271" s="17">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>32</v>
@@ -18478,7 +18495,7 @@
         <v>1800</v>
       </c>
       <c r="J271" s="21" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="K271" s="15" t="s">
         <v>62</v>
@@ -18486,13 +18503,13 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="15" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C272" s="17">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>32</v>
@@ -18513,7 +18530,7 @@
         <v>1800</v>
       </c>
       <c r="J272" s="21" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="K272" s="15" t="s">
         <v>62</v>
@@ -18521,34 +18538,34 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="15" t="s">
-        <v>669</v>
+        <v>158</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>670</v>
+        <v>159</v>
       </c>
       <c r="C273" s="17">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>546</v>
+        <v>156</v>
       </c>
       <c r="F273" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G273" s="18">
-        <v>1600</v>
+        <v>1150</v>
       </c>
       <c r="H273" s="18">
-        <v>1800</v>
+        <v>1349</v>
       </c>
       <c r="I273" s="18">
-        <v>1800</v>
+        <v>1325</v>
       </c>
       <c r="J273" s="21" t="s">
-        <v>671</v>
+        <v>160</v>
       </c>
       <c r="K273" s="15" t="s">
         <v>62</v>
@@ -18556,13 +18573,13 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C274" s="17">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>36</v>
@@ -18583,7 +18600,7 @@
         <v>1325</v>
       </c>
       <c r="J274" s="21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K274" s="15" t="s">
         <v>62</v>
@@ -18591,34 +18608,34 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="15" t="s">
-        <v>167</v>
+        <v>491</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>168</v>
+        <v>492</v>
       </c>
       <c r="C275" s="17">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E275" s="18" t="s">
-        <v>156</v>
+        <v>486</v>
       </c>
       <c r="F275" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G275" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H275" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H275" s="41">
+        <v>1550</v>
       </c>
       <c r="I275" s="18">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="J275" s="21" t="s">
-        <v>169</v>
+        <v>493</v>
       </c>
       <c r="K275" s="15" t="s">
         <v>62</v>
@@ -18626,34 +18643,34 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="15" t="s">
-        <v>491</v>
+        <v>858</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>492</v>
+        <v>859</v>
       </c>
       <c r="C276" s="17">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D276" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E276" s="18" t="s">
-        <v>486</v>
+        <v>856</v>
       </c>
       <c r="F276" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G276" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H276" s="42">
-        <v>1550</v>
+        <v>1250</v>
+      </c>
+      <c r="H276" s="18">
+        <v>1449</v>
       </c>
       <c r="I276" s="18">
-        <v>1550</v>
+        <v>1425</v>
       </c>
       <c r="J276" s="21" t="s">
-        <v>493</v>
+        <v>860</v>
       </c>
       <c r="K276" s="15" t="s">
         <v>62</v>
@@ -18661,118 +18678,118 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="15" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>859</v>
-      </c>
-      <c r="C277" s="17">
-        <v>261</v>
+        <v>852</v>
+      </c>
+      <c r="C277" s="40">
+        <v>258</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E277" s="18" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="F277" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G277" s="18">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="H277" s="18">
-        <v>1449</v>
+        <v>1349</v>
       </c>
       <c r="I277" s="18">
-        <v>1425</v>
+        <v>1325</v>
       </c>
       <c r="J277" s="21" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="K277" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="15" t="s">
-        <v>851</v>
+        <v>494</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="C278" s="41">
-        <v>258</v>
+        <v>495</v>
+      </c>
+      <c r="C278" s="17">
+        <v>262</v>
       </c>
       <c r="D278" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E278" s="18" t="s">
-        <v>824</v>
+        <v>486</v>
       </c>
       <c r="F278" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G278" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H278" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H278" s="41">
+        <v>1550</v>
       </c>
       <c r="I278" s="18">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="J278" s="21" t="s">
-        <v>853</v>
+        <v>496</v>
       </c>
       <c r="K278" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="15" t="s">
-        <v>494</v>
+        <v>917</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>495</v>
+        <v>918</v>
       </c>
       <c r="C279" s="17">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E279" s="18" t="s">
-        <v>486</v>
+        <v>874</v>
       </c>
       <c r="F279" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G279" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H279" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H279" s="18">
+        <v>1349</v>
       </c>
       <c r="I279" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J279" s="21" t="s">
-        <v>496</v>
+        <v>919</v>
       </c>
       <c r="K279" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="15" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C280" s="17">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D280" s="15" t="s">
         <v>44</v>
@@ -18793,7 +18810,7 @@
         <v>1325</v>
       </c>
       <c r="J280" s="21" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="K280" s="15" t="s">
         <v>62</v>
@@ -18801,34 +18818,34 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="15" t="s">
-        <v>923</v>
+        <v>440</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>924</v>
+        <v>441</v>
       </c>
       <c r="C281" s="17">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E281" s="18" t="s">
-        <v>874</v>
+        <v>442</v>
       </c>
       <c r="F281" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G281" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H281" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H281" s="41">
+        <v>1550</v>
       </c>
       <c r="I281" s="18">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="J281" s="21" t="s">
-        <v>925</v>
+        <v>443</v>
       </c>
       <c r="K281" s="15" t="s">
         <v>62</v>
@@ -18836,19 +18853,19 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="15" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C282" s="17">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D282" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E282" s="18" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="F282" s="18">
         <v>3</v>
@@ -18856,14 +18873,14 @@
       <c r="G282" s="18">
         <v>1350</v>
       </c>
-      <c r="H282" s="42">
+      <c r="H282" s="41">
         <v>1550</v>
       </c>
       <c r="I282" s="18">
         <v>1550</v>
       </c>
       <c r="J282" s="21" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="K282" s="15" t="s">
         <v>62</v>
@@ -18871,54 +18888,54 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="15" t="s">
-        <v>358</v>
+        <v>865</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>359</v>
+        <v>866</v>
       </c>
       <c r="C283" s="17">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D283" s="15" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E283" s="18" t="s">
-        <v>356</v>
+        <v>867</v>
       </c>
       <c r="F283" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G283" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H283" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H283" s="18">
+        <v>1349</v>
       </c>
       <c r="I283" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J283" s="21" t="s">
-        <v>360</v>
+        <v>868</v>
       </c>
       <c r="K283" s="15" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="15" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="C284" s="17">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E284" s="18" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="F284" s="18">
         <v>1</v>
@@ -18933,21 +18950,21 @@
         <v>1325</v>
       </c>
       <c r="J284" s="21" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="K284" s="15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="15" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C285" s="17">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>25</v>
@@ -18968,7 +18985,7 @@
         <v>1325</v>
       </c>
       <c r="J285" s="21" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K285" s="15" t="s">
         <v>62</v>
@@ -18976,16 +18993,16 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="15" t="s">
-        <v>872</v>
+        <v>911</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="C286" s="17">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D286" s="15" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E286" s="18" t="s">
         <v>874</v>
@@ -19003,7 +19020,7 @@
         <v>1325</v>
       </c>
       <c r="J286" s="21" t="s">
-        <v>875</v>
+        <v>913</v>
       </c>
       <c r="K286" s="15" t="s">
         <v>62</v>
@@ -19011,34 +19028,34 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="15" t="s">
-        <v>911</v>
+        <v>361</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>912</v>
+        <v>362</v>
       </c>
       <c r="C287" s="17">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E287" s="18" t="s">
-        <v>874</v>
+        <v>356</v>
       </c>
       <c r="F287" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G287" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H287" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H287" s="41">
+        <v>1550</v>
       </c>
       <c r="I287" s="18">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="J287" s="21" t="s">
-        <v>913</v>
+        <v>363</v>
       </c>
       <c r="K287" s="15" t="s">
         <v>62</v>
@@ -19081,34 +19098,34 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="15" t="s">
-        <v>361</v>
+        <v>908</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="C289" s="17">
-        <v>240</v>
+        <v>909</v>
+      </c>
+      <c r="C289" s="40">
+        <v>299</v>
       </c>
       <c r="D289" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E289" s="18" t="s">
-        <v>356</v>
+        <v>874</v>
       </c>
       <c r="F289" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G289" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H289" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H289" s="18">
+        <v>1349</v>
       </c>
       <c r="I289" s="18">
-        <v>1550</v>
+        <v>1325</v>
       </c>
       <c r="J289" s="21" t="s">
-        <v>363</v>
+        <v>910</v>
       </c>
       <c r="K289" s="15" t="s">
         <v>62</v>
@@ -19116,13 +19133,13 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="15" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>909</v>
-      </c>
-      <c r="C290" s="41">
-        <v>299</v>
+        <v>915</v>
+      </c>
+      <c r="C290" s="40">
+        <v>301</v>
       </c>
       <c r="D290" s="15" t="s">
         <v>43</v>
@@ -19143,7 +19160,7 @@
         <v>1325</v>
       </c>
       <c r="J290" s="21" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="K290" s="15" t="s">
         <v>62</v>
@@ -19151,34 +19168,34 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="15" t="s">
-        <v>914</v>
+        <v>481</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>915</v>
-      </c>
-      <c r="C291" s="41">
-        <v>301</v>
+        <v>482</v>
+      </c>
+      <c r="C291" s="40">
+        <v>48</v>
       </c>
       <c r="D291" s="15" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E291" s="18" t="s">
-        <v>874</v>
+        <v>476</v>
       </c>
       <c r="F291" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G291" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H291" s="18">
-        <v>1349</v>
+        <v>1350</v>
+      </c>
+      <c r="H291" s="41">
+        <v>1550</v>
       </c>
       <c r="I291" s="18">
-        <v>1325</v>
-      </c>
-      <c r="J291" s="21" t="s">
-        <v>916</v>
+        <v>1550</v>
+      </c>
+      <c r="J291" s="19" t="s">
+        <v>483</v>
       </c>
       <c r="K291" s="15" t="s">
         <v>62</v>
@@ -19186,19 +19203,19 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="B292" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C292" s="41">
-        <v>48</v>
+        <v>462</v>
+      </c>
+      <c r="B292" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C292" s="40">
+        <v>8</v>
       </c>
       <c r="D292" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E292" s="18" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F292" s="18">
         <v>3</v>
@@ -19206,14 +19223,14 @@
       <c r="G292" s="18">
         <v>1350</v>
       </c>
-      <c r="H292" s="42">
+      <c r="H292" s="41">
         <v>1550</v>
       </c>
       <c r="I292" s="18">
         <v>1550</v>
       </c>
       <c r="J292" s="19" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="K292" s="15" t="s">
         <v>62</v>
@@ -19221,19 +19238,19 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B293" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="C293" s="41">
-        <v>8</v>
+        <v>409</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C293" s="40">
+        <v>18</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E293" s="18" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="F293" s="18">
         <v>3</v>
@@ -19241,34 +19258,34 @@
       <c r="G293" s="18">
         <v>1350</v>
       </c>
-      <c r="H293" s="42">
+      <c r="H293" s="41">
         <v>1550</v>
       </c>
       <c r="I293" s="18">
         <v>1550</v>
       </c>
       <c r="J293" s="19" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="K293" s="15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="15" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C294" s="41">
-        <v>18</v>
+        <v>471</v>
+      </c>
+      <c r="C294" s="40">
+        <v>27</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E294" s="18" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="F294" s="18">
         <v>3</v>
@@ -19276,34 +19293,34 @@
       <c r="G294" s="18">
         <v>1350</v>
       </c>
-      <c r="H294" s="42">
+      <c r="H294" s="41">
         <v>1550</v>
       </c>
       <c r="I294" s="18">
         <v>1550</v>
       </c>
       <c r="J294" s="19" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="K294" s="15" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="15" t="s">
-        <v>470</v>
+        <v>787</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="C295" s="41">
-        <v>27</v>
+        <v>788</v>
+      </c>
+      <c r="C295" s="40">
+        <v>28</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E295" s="18" t="s">
-        <v>472</v>
+        <v>695</v>
       </c>
       <c r="F295" s="18">
         <v>3</v>
@@ -19311,34 +19328,34 @@
       <c r="G295" s="18">
         <v>1350</v>
       </c>
-      <c r="H295" s="42">
+      <c r="H295" s="41">
         <v>1550</v>
       </c>
       <c r="I295" s="18">
         <v>1550</v>
       </c>
       <c r="J295" s="19" t="s">
-        <v>473</v>
+        <v>789</v>
       </c>
       <c r="K295" s="15" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="B296" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="C296" s="41">
-        <v>28</v>
+        <v>378</v>
+      </c>
+      <c r="B296" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C296" s="40">
+        <v>16</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E296" s="18" t="s">
-        <v>695</v>
+        <v>380</v>
       </c>
       <c r="F296" s="18">
         <v>3</v>
@@ -19346,34 +19363,34 @@
       <c r="G296" s="18">
         <v>1350</v>
       </c>
-      <c r="H296" s="42">
+      <c r="H296" s="41">
         <v>1550</v>
       </c>
       <c r="I296" s="18">
         <v>1550</v>
       </c>
       <c r="J296" s="19" t="s">
-        <v>789</v>
+        <v>381</v>
       </c>
       <c r="K296" s="15" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B297" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C297" s="41">
-        <v>16</v>
+        <v>444</v>
+      </c>
+      <c r="B297" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C297" s="40">
+        <v>47</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E297" s="18" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="F297" s="18">
         <v>3</v>
@@ -19381,34 +19398,34 @@
       <c r="G297" s="18">
         <v>1350</v>
       </c>
-      <c r="H297" s="42">
+      <c r="H297" s="41">
         <v>1550</v>
       </c>
       <c r="I297" s="18">
         <v>1550</v>
       </c>
       <c r="J297" s="19" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="K297" s="15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B298" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C298" s="41">
-        <v>47</v>
+        <v>382</v>
+      </c>
+      <c r="B298" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C298" s="40">
+        <v>14</v>
       </c>
       <c r="D298" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E298" s="18" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="F298" s="18">
         <v>3</v>
@@ -19416,14 +19433,14 @@
       <c r="G298" s="18">
         <v>1350</v>
       </c>
-      <c r="H298" s="42">
+      <c r="H298" s="41">
         <v>1550</v>
       </c>
       <c r="I298" s="18">
         <v>1550</v>
       </c>
       <c r="J298" s="19" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="K298" s="15" t="s">
         <v>62</v>
@@ -19431,13 +19448,13 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="15" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C299" s="41">
-        <v>14</v>
+        <v>386</v>
+      </c>
+      <c r="C299" s="17">
+        <v>15</v>
       </c>
       <c r="D299" s="15" t="s">
         <v>10</v>
@@ -19451,14 +19468,14 @@
       <c r="G299" s="18">
         <v>1350</v>
       </c>
-      <c r="H299" s="42">
+      <c r="H299" s="41">
         <v>1550</v>
       </c>
       <c r="I299" s="18">
         <v>1550</v>
       </c>
       <c r="J299" s="19" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K299" s="15" t="s">
         <v>62</v>
@@ -19466,19 +19483,19 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="B300" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C300" s="17">
-        <v>15</v>
+        <v>693</v>
+      </c>
+      <c r="B300" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="C300" s="40">
+        <v>31</v>
       </c>
       <c r="D300" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E300" s="18" t="s">
-        <v>380</v>
+        <v>695</v>
       </c>
       <c r="F300" s="18">
         <v>3</v>
@@ -19486,34 +19503,34 @@
       <c r="G300" s="18">
         <v>1350</v>
       </c>
-      <c r="H300" s="42">
+      <c r="H300" s="41">
         <v>1550</v>
       </c>
       <c r="I300" s="18">
         <v>1550</v>
       </c>
       <c r="J300" s="19" t="s">
-        <v>387</v>
+        <v>696</v>
       </c>
       <c r="K300" s="15" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="B301" s="21" t="s">
-        <v>694</v>
-      </c>
-      <c r="C301" s="41">
-        <v>31</v>
+        <v>450</v>
+      </c>
+      <c r="B301" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C301" s="40">
+        <v>11</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E301" s="18" t="s">
-        <v>695</v>
+        <v>414</v>
       </c>
       <c r="F301" s="18">
         <v>3</v>
@@ -19521,69 +19538,69 @@
       <c r="G301" s="18">
         <v>1350</v>
       </c>
-      <c r="H301" s="42">
+      <c r="H301" s="41">
         <v>1550</v>
       </c>
       <c r="I301" s="18">
         <v>1550</v>
       </c>
       <c r="J301" s="19" t="s">
-        <v>696</v>
+        <v>452</v>
       </c>
       <c r="K301" s="15" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="15" t="s">
-        <v>450</v>
+        <v>891</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="C302" s="41">
-        <v>11</v>
+        <v>892</v>
+      </c>
+      <c r="C302" s="40">
+        <v>286</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E302" s="18" t="s">
-        <v>414</v>
+        <v>867</v>
       </c>
       <c r="F302" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G302" s="18">
-        <v>1350</v>
-      </c>
-      <c r="H302" s="42">
-        <v>1550</v>
+        <v>1150</v>
+      </c>
+      <c r="H302" s="18">
+        <v>1349</v>
       </c>
       <c r="I302" s="18">
-        <v>1550</v>
-      </c>
-      <c r="J302" s="19" t="s">
-        <v>452</v>
+        <v>1325</v>
+      </c>
+      <c r="J302" s="21" t="s">
+        <v>893</v>
       </c>
       <c r="K302" s="15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="15" t="s">
-        <v>891</v>
+        <v>848</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>892</v>
-      </c>
-      <c r="C303" s="41">
-        <v>286</v>
+        <v>849</v>
+      </c>
+      <c r="C303" s="40">
+        <v>305</v>
       </c>
       <c r="D303" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>867</v>
+        <v>824</v>
       </c>
       <c r="F303" s="18">
         <v>1</v>
@@ -19598,51 +19615,16 @@
         <v>1325</v>
       </c>
       <c r="J303" s="21" t="s">
-        <v>893</v>
+        <v>850</v>
       </c>
       <c r="K303" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A304" s="15" t="s">
-        <v>848</v>
-      </c>
-      <c r="B304" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="C304" s="41">
-        <v>305</v>
-      </c>
-      <c r="D304" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E304" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="F304" s="18">
-        <v>1</v>
-      </c>
-      <c r="G304" s="18">
-        <v>1150</v>
-      </c>
-      <c r="H304" s="18">
-        <v>1349</v>
-      </c>
-      <c r="I304" s="18">
-        <v>1325</v>
-      </c>
-      <c r="J304" s="21" t="s">
-        <v>850</v>
-      </c>
-      <c r="K304" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K304" xr:uid="{99C5B376-7889-4711-B365-A97417F1D8CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K304">
-      <sortCondition ref="B1:B304"/>
+  <autoFilter ref="A1:K303" xr:uid="{99C5B376-7889-4711-B365-A97417F1D8CC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K303">
+      <sortCondition ref="B1:B303"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19654,11 +19636,12 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="5" max="5" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19748,7 +19731,7 @@
       <c r="I3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="36"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -20021,7 +20004,7 @@
       <c r="G12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="36" t="s">
         <v>1036</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -20052,7 +20035,7 @@
       <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="37" t="s">
         <v>1039</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -20083,7 +20066,7 @@
       <c r="G14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="37" t="s">
         <v>1042</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -20319,7 +20302,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20496,7 +20479,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>1005</v>
       </c>
       <c r="B1" t="s">
@@ -20504,138 +20487,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>303</v>
       </c>
     </row>
